--- a/Question/FrameWorks/Node JS/_B.xlsx
+++ b/Question/FrameWorks/Node JS/_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zaman\Desktop\RP\Question\FrameWorks\Node JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC1C693-D71A-4B07-B14C-745941142D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7B898D-F358-428F-9881-E4A89B6EF73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,29 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>is Node.js  a single-threaded application</t>
+  </si>
+  <si>
+    <t>is Node.js  a multi-threaded application</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -337,12 +360,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>